--- a/projekt/projekt_analiza.xlsx
+++ b/projekt/projekt_analiza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDVirtual\Desktop\projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135F3CE8-0446-4CCD-8A6F-DD8B9CC5BB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946FB39F-E427-40C1-95EB-F0D5E8628133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="14220" activeTab="5" xr2:uid="{4F8FB85A-0C3B-4990-91BB-CFEF9F2A6964}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="14220" activeTab="3" xr2:uid="{4F8FB85A-0C3B-4990-91BB-CFEF9F2A6964}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId7"/>
-    <pivotCache cacheId="20" r:id="rId8"/>
-    <pivotCache cacheId="70" r:id="rId9"/>
-    <pivotCache cacheId="89" r:id="rId10"/>
-    <pivotCache cacheId="128" r:id="rId11"/>
-    <pivotCache cacheId="145" r:id="rId12"/>
+    <pivotCache cacheId="8" r:id="rId7"/>
+    <pivotCache cacheId="11" r:id="rId8"/>
+    <pivotCache cacheId="14" r:id="rId9"/>
+    <pivotCache cacheId="17" r:id="rId10"/>
+    <pivotCache cacheId="20" r:id="rId11"/>
+    <pivotCache cacheId="23" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -353,7 +353,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1274,7 +1274,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2675,7 +2675,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -6612,7 +6612,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44706.831755324078" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6003090B-51DF-4017-92DF-77202BC144DD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44707.561228587962" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6003090B-51DF-4017-92DF-77202BC144DD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Trip Customer Distinct Count]" caption="Trip Customer Distinct Count" numFmtId="0" hierarchy="95" level="32767"/>
@@ -6632,7 +6632,7 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="97">
+  <cacheHierarchies count="98">
     <cacheHierarchy uniqueName="[DIM BIKE].[BIKE ID]" caption="BIKE ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM BIKE].[BIKE ID].[All]" allUniqueName="[DIM BIKE].[BIKE ID].[All]" dimensionUniqueName="[DIM BIKE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM CUSTOMER].[Cust Zip Code]" caption="Cust Zip Code" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Cust Zip Code].[All]" allUniqueName="[DIM CUSTOMER].[Cust Zip Code].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM CUSTOMER].[CUSTOMER ID]" caption="CUSTOMER ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[CUSTOMER ID].[All]" allUniqueName="[DIM CUSTOMER].[CUSTOMER ID].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
@@ -6744,6 +6744,7 @@
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Trip Bike Distinct Count]" caption="Trip Bike Distinct Count" measure="1" displayFolder="" measureGroup="FACT TRIP 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg Duration]" caption="Avg Duration" measure="1" displayFolder="" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="12">
@@ -6809,7 +6810,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44706.832395717596" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{351147D9-A1A8-413E-AB29-17DF6FE870F4}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44707.561233912034" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{351147D9-A1A8-413E-AB29-17DF6FE870F4}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Measures].[Trip Customer Distinct Count]" caption="Trip Customer Distinct Count" numFmtId="0" hierarchy="95" level="32767"/>
@@ -6823,7 +6824,7 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="97">
+  <cacheHierarchies count="98">
     <cacheHierarchy uniqueName="[DIM BIKE].[BIKE ID]" caption="BIKE ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM BIKE].[BIKE ID].[All]" allUniqueName="[DIM BIKE].[BIKE ID].[All]" dimensionUniqueName="[DIM BIKE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM CUSTOMER].[Cust Zip Code]" caption="Cust Zip Code" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Cust Zip Code].[All]" allUniqueName="[DIM CUSTOMER].[Cust Zip Code].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM CUSTOMER].[CUSTOMER ID]" caption="CUSTOMER ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[CUSTOMER ID].[All]" allUniqueName="[DIM CUSTOMER].[CUSTOMER ID].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
@@ -6930,6 +6931,7 @@
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Trip Bike Distinct Count]" caption="Trip Bike Distinct Count" measure="1" displayFolder="" measureGroup="FACT TRIP 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg Duration]" caption="Avg Duration" measure="1" displayFolder="" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="12">
@@ -6995,7 +6997,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44706.836358680557" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{72C83E94-325D-48E1-88F9-B427066CE1B7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44707.5612400463" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{72C83E94-325D-48E1-88F9-B427066CE1B7}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[DIM CUSTOMER].[Subscription Type].[Subscription Type]" caption="Subscription Type" numFmtId="0" hierarchy="3" level="1">
@@ -7018,7 +7020,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="97">
+  <cacheHierarchies count="98">
     <cacheHierarchy uniqueName="[DIM BIKE].[BIKE ID]" caption="BIKE ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM BIKE].[BIKE ID].[All]" allUniqueName="[DIM BIKE].[BIKE ID].[All]" dimensionUniqueName="[DIM BIKE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM CUSTOMER].[Cust Zip Code]" caption="Cust Zip Code" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Cust Zip Code].[All]" allUniqueName="[DIM CUSTOMER].[Cust Zip Code].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
@@ -7085,7 +7087,7 @@
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Start Station].[Dock Count]" caption="Start Station.Dock Count" attribute="1" defaultMemberUniqueName="[Start Station].[Dock Count].[All]" allUniqueName="[Start Station].[Dock Count].[All]" dimensionUniqueName="[Start Station]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Start Station].[Hierarchy]" caption="Start Station.Hierarchy" defaultMemberUniqueName="[Start Station].[Hierarchy].[All]" allUniqueName="[Start Station].[Hierarchy].[All]" dimensionUniqueName="[Start Station]" displayFolder="" count="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Start Station].[Hierarchy]" caption="Start Station.Hierarchy" defaultMemberUniqueName="[Start Station].[Hierarchy].[All]" allUniqueName="[Start Station].[Hierarchy].[All]" dimensionUniqueName="[Start Station]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Start Station].[Lat]" caption="Start Station.Lat" attribute="1" defaultMemberUniqueName="[Start Station].[Lat].[All]" allUniqueName="[Start Station].[Lat].[All]" dimensionUniqueName="[Start Station]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Start Station].[Long]" caption="Start Station.Long" attribute="1" defaultMemberUniqueName="[Start Station].[Long].[All]" allUniqueName="[Start Station].[Long].[All]" dimensionUniqueName="[Start Station]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Start Station].[Name]" caption="Start Station.Name" attribute="1" defaultMemberUniqueName="[Start Station].[Name].[All]" allUniqueName="[Start Station].[Name].[All]" dimensionUniqueName="[Start Station]" displayFolder="" count="0" unbalanced="0"/>
@@ -7135,6 +7137,7 @@
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Trip Customer Distinct Count]" caption="Trip Customer Distinct Count" measure="1" displayFolder="" measureGroup="FACT TRIP 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Trip Bike Distinct Count]" caption="Trip Bike Distinct Count" measure="1" displayFolder="" measureGroup="FACT TRIP 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg Duration]" caption="Avg Duration" measure="1" displayFolder="" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="12">
@@ -7200,7 +7203,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44706.841666203705" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EFE30966-778B-4595-8581-93CBC3B4A51A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44707.561245717596" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EFE30966-778B-4595-8581-93CBC3B4A51A}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[DIM CUSTOMER].[Subscription Type].[Subscription Type]" caption="Subscription Type" numFmtId="0" hierarchy="3" level="1">
@@ -7222,7 +7225,7 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="97">
+  <cacheHierarchies count="98">
     <cacheHierarchy uniqueName="[DIM BIKE].[BIKE ID]" caption="BIKE ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM BIKE].[BIKE ID].[All]" allUniqueName="[DIM BIKE].[BIKE ID].[All]" dimensionUniqueName="[DIM BIKE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM CUSTOMER].[Cust Zip Code]" caption="Cust Zip Code" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Cust Zip Code].[All]" allUniqueName="[DIM CUSTOMER].[Cust Zip Code].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM CUSTOMER].[CUSTOMER ID]" caption="CUSTOMER ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[CUSTOMER ID].[All]" allUniqueName="[DIM CUSTOMER].[CUSTOMER ID].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
@@ -7334,6 +7337,7 @@
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Trip Customer Distinct Count]" caption="Trip Customer Distinct Count" measure="1" displayFolder="" measureGroup="FACT TRIP 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Trip Bike Distinct Count]" caption="Trip Bike Distinct Count" measure="1" displayFolder="" measureGroup="FACT TRIP 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg Duration]" caption="Avg Duration" measure="1" displayFolder="" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="12">
@@ -7399,7 +7403,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44706.843330902775" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{DE1EEFB5-B14D-4DE3-99BB-2C8F57EB2B27}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44707.561247916667" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{DE1EEFB5-B14D-4DE3-99BB-2C8F57EB2B27}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[FACT TRIP Count]" caption="FACT TRIP Count" numFmtId="0" hierarchy="94" level="32767"/>
@@ -7423,7 +7427,7 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="97">
+  <cacheHierarchies count="98">
     <cacheHierarchy uniqueName="[DIM BIKE].[BIKE ID]" caption="BIKE ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM BIKE].[BIKE ID].[All]" allUniqueName="[DIM BIKE].[BIKE ID].[All]" dimensionUniqueName="[DIM BIKE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM CUSTOMER].[Cust Zip Code]" caption="Cust Zip Code" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Cust Zip Code].[All]" allUniqueName="[DIM CUSTOMER].[Cust Zip Code].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM CUSTOMER].[CUSTOMER ID]" caption="CUSTOMER ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[CUSTOMER ID].[All]" allUniqueName="[DIM CUSTOMER].[CUSTOMER ID].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
@@ -7535,6 +7539,7 @@
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Trip Customer Distinct Count]" caption="Trip Customer Distinct Count" measure="1" displayFolder="" measureGroup="FACT TRIP 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Trip Bike Distinct Count]" caption="Trip Bike Distinct Count" measure="1" displayFolder="" measureGroup="FACT TRIP 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg Duration]" caption="Avg Duration" measure="1" displayFolder="" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="12">
@@ -7600,7 +7605,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44706.84746921296" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{656BC7E4-A57C-49AD-B7EA-B18AE9B5F36A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44707.561256828703" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{656BC7E4-A57C-49AD-B7EA-B18AE9B5F36A}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[DIM CUSTOMER].[Subscription Type].[Subscription Type]" caption="Subscription Type" numFmtId="0" hierarchy="3" level="1">
@@ -7620,7 +7625,7 @@
     </cacheField>
     <cacheField name="[Measures].[Trip Customer Distinct Count]" caption="Trip Customer Distinct Count" numFmtId="0" hierarchy="95" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="97">
+  <cacheHierarchies count="98">
     <cacheHierarchy uniqueName="[DIM BIKE].[BIKE ID]" caption="BIKE ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM BIKE].[BIKE ID].[All]" allUniqueName="[DIM BIKE].[BIKE ID].[All]" dimensionUniqueName="[DIM BIKE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM CUSTOMER].[Cust Zip Code]" caption="Cust Zip Code" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Cust Zip Code].[All]" allUniqueName="[DIM CUSTOMER].[Cust Zip Code].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM CUSTOMER].[CUSTOMER ID]" caption="CUSTOMER ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[CUSTOMER ID].[All]" allUniqueName="[DIM CUSTOMER].[CUSTOMER ID].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
@@ -7732,6 +7737,7 @@
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Trip Bike Distinct Count]" caption="Trip Bike Distinct Count" measure="1" displayFolder="" measureGroup="FACT TRIP 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg Duration]" caption="Avg Duration" measure="1" displayFolder="" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="12">
@@ -7797,7 +7803,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{836E1FA3-42DF-4654-8E18-8CDC19091D91}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{836E1FA3-42DF-4654-8E18-8CDC19091D91}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="B2:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -7883,100 +7889,101 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotHierarchies count="97">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="98">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -8001,7 +8008,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F0515745-37FE-4D43-92D5-77A35D7C75B2}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F0515745-37FE-4D43-92D5-77A35D7C75B2}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="B2:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -8055,100 +8062,101 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotHierarchies count="97">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="98">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -8170,7 +8178,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D366EB74-C3EC-4EF0-B2F7-6FB3391460ED}" name="PivotTable2" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D366EB74-C3EC-4EF0-B2F7-6FB3391460ED}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="B3:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -8260,7 +8268,7 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotHierarchies count="97">
+  <pivotHierarchies count="98">
     <pivotHierarchy/>
     <pivotHierarchy multipleItemSelectionAllowed="1">
       <members count="6" level="1">
@@ -8363,6 +8371,7 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -8387,7 +8396,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C1D1EF71-768D-4A2A-8FD5-0E7061578962}" name="PivotTable3" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C1D1EF71-768D-4A2A-8FD5-0E7061578962}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="B3:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
@@ -8465,100 +8474,101 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotHierarchies count="97">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="98">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -8589,7 +8599,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45D45989-296A-4986-AF23-AFC9D8BA0C71}" name="PivotTable4" cacheId="128" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45D45989-296A-4986-AF23-AFC9D8BA0C71}" name="PivotTable4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="B3:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -8675,100 +8685,101 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotHierarchies count="97">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="98">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -8790,7 +8801,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30EB8863-6A94-47F6-BA6F-E2F4BD9D65D4}" name="PivotTable5" cacheId="145" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30EB8863-6A94-47F6-BA6F-E2F4BD9D65D4}" name="PivotTable5" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="B3:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -8876,100 +8887,101 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotHierarchies count="97">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="98">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -9421,7 +9433,7 @@
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9635,8 +9647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C8D6E2-B79C-4F26-9901-B85C59D6CE63}">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9899,7 +9911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67266057-235F-48B4-B856-01DFAD02509E}">
   <dimension ref="B3:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
